--- a/易识测试用例-v2.12- 2-3月.xlsx
+++ b/易识测试用例-v2.12- 2-3月.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="599">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="981" uniqueCount="592">
   <si>
     <t xml:space="preserve">请按照下面的规则填写上传数据:
 1.模块：填写用例库下已有的模块名称，请从第一级模块开始完整填写（所有用例不属于模块），层级之间用“/”间隔，例如：一级模块/二级模块/三级模块，最多五级，不填写自动归入至‘无模块用例’中。
@@ -1015,7 +1015,8 @@
 5、点击保存；</t>
   </si>
   <si>
-    <t>1、白名单规则创建失败，组件版本输入框提示“请输入组件版本”；</t>
+    <t>1、白名单规则创建成功；
+2、组件的所有版本及其关联的CVE均被加入白名单，数据在下载报告的白名单章节显示；</t>
   </si>
   <si>
     <t>新增白名单规则-不填写组件名称</t>
@@ -1028,7 +1029,8 @@
 5、点击保存；</t>
   </si>
   <si>
-    <t>1、白名单规则创建失败，组件名称输入框提示“请输入组件名称”；</t>
+    <t>1、白名单规则创建失败；
+2、组件白名单信息被过滤，未进行筛选”；</t>
   </si>
   <si>
     <t>新增白名单规则-组件大小写校验</t>
@@ -1077,9 +1079,6 @@
     <t>新增白名单规则失败-输入组件版本为空格</t>
   </si>
   <si>
-    <t>1、白名单规则创建失败，组件版本输入框提示“参数长度错误,最小长度为1”；</t>
-  </si>
-  <si>
     <t>新增白名单规则-只输入组件版本</t>
   </si>
   <si>
@@ -1090,7 +1089,8 @@
 5、点击保存；</t>
   </si>
   <si>
-    <t>1、白名单规则创建失败，组件版本输入框提示“请输入组件名称”；</t>
+    <t>1、白名单规则创建失败；
+2、组件白名单信息被过滤，未进行筛选；</t>
   </si>
   <si>
     <t>新增白名单规则-不输入组件版本</t>
@@ -1113,7 +1113,8 @@
 5、点击保存；</t>
   </si>
   <si>
-    <t>1、白名单规则创建失败，组件白名单类型输入框提示“请选择白名单类型”；</t>
+    <t>1、白名单规则创建失败；
+2、但组件白名单信息被过滤，未进行筛选；</t>
   </si>
   <si>
     <t>新增白名单规则-只选择组件白名单类型</t>
@@ -1215,14 +1216,10 @@
   </si>
   <si>
     <t>1、创建白名单规则失败；
-2、CVE白名单类型下拉框提示“请选择白名单类型”；</t>
+2、CVE白名单信息被过滤，未进行筛选；</t>
   </si>
   <si>
     <t>新增白名单规则失败-新增CVE漏洞只填写白名单类型</t>
-  </si>
-  <si>
-    <t>1、创建白名单规则失败；
-2、CVE编号输入框提示“请输入白名单编号”；</t>
   </si>
   <si>
     <t>新增白名单规则-成功清空CVE漏洞白名单内容</t>
@@ -1342,10 +1339,6 @@
 4、点击保存；</t>
   </si>
   <si>
-    <t>1、白名单规则创建失败；
-2、组件版本输入框下方提示“请输入组件版本”；</t>
-  </si>
-  <si>
     <t>编辑白名单规则失败-只填写组件版本</t>
   </si>
   <si>
@@ -1355,10 +1348,6 @@
 4、点击保存；</t>
   </si>
   <si>
-    <t>1、白名单规则创建失败；
-2、组件名称输入框下方提示“请输入组件名称”；</t>
-  </si>
-  <si>
     <t>编辑白名单规则失败-只选择组件白名单类型</t>
   </si>
   <si>
@@ -1377,10 +1366,6 @@
 4、点击保存；</t>
   </si>
   <si>
-    <t>1、白名单规则创建失败；
-2、组件名输入框下方提示“请输入组件名称”；</t>
-  </si>
-  <si>
     <t>编辑白名单规则失败-不填写组件版本</t>
   </si>
   <si>
@@ -1390,6 +1375,10 @@
 4、点击保存；</t>
   </si>
   <si>
+    <t>1、白名单规则创建成功；
+2、该组件的所有版本及其关联的CVE均被加入白名单，在下载报告的白名单章节显示；</t>
+  </si>
+  <si>
     <t>编辑白名单规则失败-不选择组件白名单类型</t>
   </si>
   <si>
@@ -1399,10 +1388,6 @@
 4、点击保存；</t>
   </si>
   <si>
-    <t>1、白名单规则创建失败；
-2、白名单类型勾选框下方提示“请选择白名单类型”；</t>
-  </si>
-  <si>
     <t>编辑白名单规则失败-CVE白名单不以【CVE-】为前缀</t>
   </si>
   <si>
@@ -1433,10 +1418,6 @@
 4、点击保存；</t>
   </si>
   <si>
-    <t>1、创建白名单规则失败；
-2、CVE白名单类型选择框提示“请选择白名单类型”；</t>
-  </si>
-  <si>
     <t>编辑白名单规则失败-只选择CVE过滤的白名单类型</t>
   </si>
   <si>
@@ -1444,10 +1425,6 @@
 2、选择白名单规则，点击操作栏编辑按钮；
 3、清空CVE编号；
 4、点击保存；</t>
-  </si>
-  <si>
-    <t>1、创建白名单规则失败；
-2、CVE输入框下方提示“请输入CVE编号”；</t>
   </si>
   <si>
     <t>成功取消编辑白名单规则</t>
@@ -3442,9 +3419,9 @@
   <dimension ref="A1:P472"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="2" topLeftCell="A80" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N132" sqref="N132"/>
+      <selection pane="bottomLeft" activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -4981,26 +4958,26 @@
         <v>252</v>
       </c>
       <c r="L94" s="2" t="s">
-        <v>255</v>
+        <v>241</v>
       </c>
     </row>
     <row r="95" ht="134" customHeight="1" spans="3:12">
       <c r="C95" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="K95" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="K95" s="2" t="s">
+      <c r="L95" s="2" t="s">
         <v>257</v>
-      </c>
-      <c r="L95" s="2" t="s">
-        <v>258</v>
       </c>
     </row>
     <row r="96" ht="134" customHeight="1" spans="3:12">
       <c r="C96" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="K96" s="2" t="s">
         <v>259</v>
-      </c>
-      <c r="K96" s="2" t="s">
-        <v>260</v>
       </c>
       <c r="L96" s="2" t="s">
         <v>241</v>
@@ -5008,1898 +4985,1898 @@
     </row>
     <row r="97" ht="117" customHeight="1" spans="3:12">
       <c r="C97" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="K97" s="2" t="s">
         <v>261</v>
       </c>
-      <c r="K97" s="2" t="s">
+      <c r="L97" s="2" t="s">
         <v>262</v>
-      </c>
-      <c r="L97" s="2" t="s">
-        <v>263</v>
       </c>
     </row>
     <row r="98" ht="155" customHeight="1" spans="3:12">
       <c r="C98" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="K98" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="K98" s="2" t="s">
-        <v>265</v>
-      </c>
       <c r="L98" s="2" t="s">
-        <v>244</v>
+        <v>257</v>
       </c>
     </row>
     <row r="99" ht="155" customHeight="1" spans="3:12">
       <c r="C99" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="K99" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="K99" s="2" t="s">
+      <c r="L99" s="2" t="s">
         <v>267</v>
-      </c>
-      <c r="L99" s="2" t="s">
-        <v>268</v>
       </c>
     </row>
     <row r="100" ht="155" customHeight="1" spans="3:12">
       <c r="C100" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="K100" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="K100" s="2" t="s">
+      <c r="L100" s="2" t="s">
         <v>270</v>
-      </c>
-      <c r="L100" s="2" t="s">
-        <v>271</v>
       </c>
     </row>
     <row r="101" ht="155" customHeight="1" spans="3:12">
       <c r="C101" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="K101" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="K101" s="2" t="s">
+      <c r="L101" s="2" t="s">
         <v>273</v>
-      </c>
-      <c r="L101" s="2" t="s">
-        <v>274</v>
       </c>
     </row>
     <row r="102" ht="155" customHeight="1" spans="3:12">
       <c r="C102" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="L102" s="2" t="s">
         <v>275</v>
-      </c>
-      <c r="K102" s="2" t="s">
-        <v>262</v>
-      </c>
-      <c r="L102" s="2" t="s">
-        <v>276</v>
       </c>
     </row>
     <row r="103" ht="155" customHeight="1" spans="3:12">
       <c r="C103" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="K103" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="K103" s="2" t="s">
+      <c r="L103" s="2" t="s">
         <v>278</v>
-      </c>
-      <c r="L103" s="2" t="s">
-        <v>279</v>
       </c>
     </row>
     <row r="104" ht="155" customHeight="1" spans="3:12">
       <c r="C104" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="K104" s="2" t="s">
         <v>280</v>
       </c>
-      <c r="K104" s="2" t="s">
+      <c r="L104" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="L104" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="105" ht="142" customHeight="1" spans="3:12">
       <c r="C105" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="K105" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L105" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="L105" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="106" ht="142" customHeight="1" spans="3:12">
       <c r="C106" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="K106" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L106" s="2" t="s">
         <v>281</v>
-      </c>
-      <c r="L106" s="2" t="s">
-        <v>282</v>
       </c>
     </row>
     <row r="107" ht="142" customHeight="1" spans="3:12">
       <c r="C107" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="L107" s="2" t="s">
         <v>285</v>
-      </c>
-      <c r="K107" s="2" t="s">
-        <v>281</v>
-      </c>
-      <c r="L107" s="2" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="108" ht="142" customHeight="1" spans="3:12">
       <c r="C108" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="K108" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L108" s="2" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" ht="151" customHeight="1" spans="3:12">
       <c r="C109" s="2" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="K109" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L109" s="2" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="110" ht="151" customHeight="1" spans="3:12">
       <c r="C110" s="2" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="K110" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L110" s="2" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="111" ht="151" customHeight="1" spans="3:12">
       <c r="C111" s="2" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="K111" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="L111" s="2" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="112" ht="169" customHeight="1" spans="3:12">
       <c r="C112" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="K112" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="J112" s="2" t="s">
+      <c r="L112" s="2" t="s">
         <v>296</v>
-      </c>
-      <c r="K112" s="2" t="s">
-        <v>297</v>
-      </c>
-      <c r="L112" s="2" t="s">
-        <v>298</v>
       </c>
     </row>
     <row r="113" ht="156" customHeight="1" spans="3:12">
       <c r="C113" s="2" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="J113" s="2" t="s">
         <v>219</v>
       </c>
       <c r="K113" s="2" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="L113" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="114" ht="156" customHeight="1" spans="3:12">
       <c r="C114" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="L114" s="2" t="s">
         <v>301</v>
-      </c>
-      <c r="K114" s="2" t="s">
-        <v>302</v>
-      </c>
-      <c r="L114" s="2" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="115" ht="156" customHeight="1" spans="3:12">
       <c r="C115" s="2" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="K115" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L115" s="2" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
     </row>
     <row r="116" ht="156" customHeight="1" spans="3:13">
       <c r="C116" s="2" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="K116" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="L116" s="2" t="s">
         <v>305</v>
-      </c>
-      <c r="L116" s="2" t="s">
-        <v>307</v>
       </c>
       <c r="M116" s="2"/>
     </row>
     <row r="117" ht="156" customHeight="1" spans="3:12">
       <c r="C117" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="L117" s="2" t="s">
         <v>308</v>
-      </c>
-      <c r="K117" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="L117" s="2" t="s">
-        <v>310</v>
       </c>
     </row>
     <row r="118" ht="156" customHeight="1" spans="3:12">
       <c r="C118" s="2" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="K118" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L118" s="2" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="119" ht="156" customHeight="1" spans="3:12">
       <c r="C119" s="2" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="K119" s="2" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="L119" s="2" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="120" ht="156" customHeight="1" spans="3:12">
       <c r="C120" s="2" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="K120" s="2" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="L120" s="2" t="s">
-        <v>317</v>
+        <v>257</v>
       </c>
     </row>
     <row r="121" ht="156" customHeight="1" spans="3:12">
       <c r="C121" s="2" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
       <c r="K121" s="2" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="L121" s="2" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
     </row>
     <row r="122" ht="156" customHeight="1" spans="3:12">
       <c r="C122" s="2" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
       <c r="K122" s="2" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="L122" s="2" t="s">
-        <v>320</v>
+        <v>257</v>
       </c>
     </row>
     <row r="123" ht="156" customHeight="1" spans="3:12">
       <c r="C123" s="2" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="K123" s="2" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="L123" s="2" t="s">
-        <v>325</v>
+        <v>257</v>
       </c>
     </row>
     <row r="124" ht="156" customHeight="1" spans="3:12">
       <c r="C124" s="2" t="s">
-        <v>326</v>
+        <v>321</v>
       </c>
       <c r="K124" s="2" t="s">
-        <v>327</v>
+        <v>322</v>
       </c>
       <c r="L124" s="2" t="s">
-        <v>317</v>
+        <v>323</v>
       </c>
     </row>
     <row r="125" ht="156" customHeight="1" spans="3:12">
       <c r="C125" s="2" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="K125" s="2" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="L125" s="2" t="s">
-        <v>330</v>
+        <v>257</v>
       </c>
     </row>
     <row r="126" ht="156" customHeight="1" spans="3:12">
       <c r="C126" s="2" t="s">
-        <v>331</v>
+        <v>326</v>
       </c>
       <c r="K126" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L126" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="127" ht="156" customHeight="1" spans="3:12">
       <c r="C127" s="2" t="s">
-        <v>333</v>
+        <v>328</v>
       </c>
       <c r="K127" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L127" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="128" ht="156" customHeight="1" spans="3:12">
       <c r="C128" s="2" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="K128" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L128" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="129" ht="156" customHeight="1" spans="3:12">
       <c r="C129" s="2" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="K129" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L129" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="130" ht="156" customHeight="1" spans="3:12">
       <c r="C130" s="2" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="K130" s="2" t="s">
-        <v>332</v>
+        <v>327</v>
       </c>
       <c r="L130" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="131" ht="156" customHeight="1" spans="3:12">
       <c r="C131" s="2" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="K131" s="2" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="L131" s="2" t="s">
-        <v>339</v>
+        <v>285</v>
       </c>
     </row>
     <row r="132" ht="156" customHeight="1" spans="3:12">
       <c r="C132" s="2" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="K132" s="2" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="L132" s="2" t="s">
-        <v>342</v>
+        <v>285</v>
       </c>
     </row>
     <row r="133" ht="156" customHeight="1" spans="3:12">
       <c r="C133" s="2" t="s">
-        <v>343</v>
+        <v>336</v>
       </c>
       <c r="K133" s="2" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="L133" s="2" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
     </row>
     <row r="134" ht="156" customHeight="1" spans="3:12">
       <c r="C134" s="2" t="s">
-        <v>346</v>
+        <v>339</v>
       </c>
       <c r="K134" s="2" t="s">
-        <v>347</v>
+        <v>340</v>
       </c>
       <c r="L134" s="2" t="s">
-        <v>348</v>
+        <v>341</v>
       </c>
     </row>
     <row r="135" ht="156" customHeight="1" spans="3:12">
       <c r="C135" s="2" t="s">
-        <v>349</v>
+        <v>342</v>
       </c>
       <c r="K135" s="2" t="s">
-        <v>350</v>
+        <v>343</v>
       </c>
       <c r="L135" s="2" t="s">
-        <v>351</v>
+        <v>344</v>
       </c>
     </row>
     <row r="136" ht="163" customHeight="1" spans="3:12">
       <c r="C136" s="2" t="s">
-        <v>352</v>
+        <v>345</v>
       </c>
       <c r="K136" s="2" t="s">
-        <v>353</v>
+        <v>346</v>
       </c>
       <c r="L136" s="2" t="s">
-        <v>354</v>
+        <v>347</v>
       </c>
     </row>
     <row r="137" ht="159" customHeight="1" spans="3:12">
       <c r="C137" s="2" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="K137" s="2" t="s">
-        <v>356</v>
+        <v>349</v>
       </c>
       <c r="L137" s="2" t="s">
-        <v>357</v>
+        <v>350</v>
       </c>
     </row>
     <row r="138" ht="166" customHeight="1" spans="3:13">
       <c r="C138" s="2" t="s">
-        <v>358</v>
+        <v>351</v>
       </c>
       <c r="J138" s="2" t="s">
-        <v>359</v>
+        <v>352</v>
       </c>
       <c r="K138" s="2" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="L138" s="2" t="s">
-        <v>361</v>
+        <v>354</v>
       </c>
       <c r="M138" s="2"/>
     </row>
     <row r="139" ht="156" customHeight="1" spans="3:13">
       <c r="C139" s="2" t="s">
-        <v>362</v>
+        <v>355</v>
       </c>
       <c r="J139" s="2" t="s">
-        <v>363</v>
+        <v>356</v>
       </c>
       <c r="K139" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L139" s="2" t="s">
-        <v>365</v>
+        <v>358</v>
       </c>
       <c r="M139" s="2"/>
     </row>
     <row r="140" ht="156" customHeight="1" spans="3:12">
       <c r="C140" s="2" t="s">
-        <v>366</v>
+        <v>359</v>
       </c>
       <c r="K140" s="2" t="s">
-        <v>367</v>
+        <v>360</v>
       </c>
       <c r="L140" s="2" t="s">
-        <v>368</v>
+        <v>361</v>
       </c>
     </row>
     <row r="141" ht="156" customHeight="1" spans="3:12">
       <c r="C141" s="2" t="s">
-        <v>369</v>
+        <v>362</v>
       </c>
       <c r="K141" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L141" s="2" t="s">
-        <v>370</v>
+        <v>363</v>
       </c>
     </row>
     <row r="142" ht="156" customHeight="1" spans="3:12">
       <c r="C142" s="2" t="s">
-        <v>371</v>
+        <v>364</v>
       </c>
       <c r="K142" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L142" s="2" t="s">
-        <v>372</v>
+        <v>365</v>
       </c>
     </row>
     <row r="143" ht="156" customHeight="1" spans="3:12">
       <c r="C143" s="2" t="s">
-        <v>373</v>
+        <v>366</v>
       </c>
       <c r="K143" s="2" t="s">
-        <v>364</v>
+        <v>357</v>
       </c>
       <c r="L143" s="2" t="s">
-        <v>374</v>
+        <v>367</v>
       </c>
     </row>
     <row r="144" ht="156" customHeight="1" spans="3:12">
       <c r="C144" s="2" t="s">
-        <v>375</v>
+        <v>368</v>
       </c>
       <c r="K144" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="L144" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="145" ht="156" customHeight="1" spans="3:12">
       <c r="C145" s="2" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
       <c r="K145" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="L145" s="2" t="s">
-        <v>377</v>
+        <v>370</v>
       </c>
     </row>
     <row r="146" ht="156" customHeight="1" spans="3:12">
       <c r="C146" s="2" t="s">
-        <v>379</v>
+        <v>372</v>
       </c>
       <c r="K146" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="L146" s="2" t="s">
-        <v>380</v>
+        <v>373</v>
       </c>
     </row>
     <row r="147" ht="156" customHeight="1" spans="3:12">
       <c r="C147" s="2" t="s">
-        <v>381</v>
+        <v>374</v>
       </c>
       <c r="K147" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="L147" s="2" t="s">
-        <v>382</v>
+        <v>375</v>
       </c>
     </row>
     <row r="148" ht="156" customHeight="1" spans="3:12">
       <c r="C148" s="2" t="s">
-        <v>383</v>
+        <v>376</v>
       </c>
       <c r="K148" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="L148" s="2" t="s">
-        <v>384</v>
+        <v>377</v>
       </c>
     </row>
     <row r="149" ht="156" customHeight="1" spans="3:12">
       <c r="C149" s="2" t="s">
-        <v>385</v>
+        <v>378</v>
       </c>
       <c r="K149" s="2" t="s">
-        <v>376</v>
+        <v>369</v>
       </c>
       <c r="L149" s="2" t="s">
-        <v>386</v>
+        <v>379</v>
       </c>
     </row>
     <row r="150" ht="156" customHeight="1" spans="3:12">
       <c r="C150" s="2" t="s">
-        <v>387</v>
+        <v>380</v>
       </c>
       <c r="K150" s="2" t="s">
-        <v>388</v>
+        <v>381</v>
       </c>
       <c r="L150" s="2" t="s">
-        <v>389</v>
+        <v>382</v>
       </c>
     </row>
     <row r="151" ht="156" customHeight="1" spans="3:12">
       <c r="C151" s="2" t="s">
-        <v>390</v>
+        <v>383</v>
       </c>
       <c r="K151" s="2" t="s">
-        <v>391</v>
+        <v>384</v>
       </c>
       <c r="L151" s="2" t="s">
-        <v>392</v>
+        <v>385</v>
       </c>
     </row>
     <row r="152" ht="156" customHeight="1" spans="3:12">
       <c r="C152" s="2" t="s">
-        <v>393</v>
+        <v>386</v>
       </c>
       <c r="K152" s="2" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="L152" s="2" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
     </row>
     <row r="153" ht="156" customHeight="1" spans="3:12">
       <c r="C153" s="2" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="K153" s="2" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="L153" s="2" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
     </row>
     <row r="154" ht="156" customHeight="1" spans="3:12">
       <c r="C154" s="2" t="s">
-        <v>399</v>
+        <v>392</v>
       </c>
       <c r="K154" s="2" t="s">
-        <v>400</v>
+        <v>393</v>
       </c>
       <c r="L154" s="2" t="s">
-        <v>401</v>
+        <v>394</v>
       </c>
     </row>
     <row r="155" ht="156" customHeight="1" spans="3:12">
       <c r="C155" s="2" t="s">
-        <v>402</v>
+        <v>395</v>
       </c>
       <c r="K155" s="2" t="s">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="L155" s="2" t="s">
-        <v>404</v>
+        <v>397</v>
       </c>
     </row>
     <row r="156" ht="156" customHeight="1" spans="1:12">
       <c r="A156" s="2" t="s">
-        <v>405</v>
+        <v>398</v>
       </c>
       <c r="C156" s="2" t="s">
-        <v>406</v>
+        <v>399</v>
       </c>
       <c r="K156" s="2" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="L156" s="2" t="s">
-        <v>408</v>
+        <v>401</v>
       </c>
     </row>
     <row r="157" ht="156" customHeight="1" spans="1:12">
       <c r="A157" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>410</v>
+        <v>403</v>
       </c>
       <c r="K157" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L157" s="2" t="s">
-        <v>412</v>
+        <v>405</v>
       </c>
     </row>
     <row r="158" ht="156" customHeight="1" spans="1:12">
       <c r="A158" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>413</v>
+        <v>406</v>
       </c>
       <c r="K158" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L158" s="2" t="s">
-        <v>414</v>
+        <v>407</v>
       </c>
     </row>
     <row r="159" ht="156" customHeight="1" spans="1:12">
       <c r="A159" s="2" t="s">
+        <v>402</v>
+      </c>
+      <c r="C159" s="2" t="s">
+        <v>408</v>
+      </c>
+      <c r="K159" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="C159" s="2" t="s">
-        <v>415</v>
-      </c>
-      <c r="K159" s="2" t="s">
-        <v>416</v>
-      </c>
       <c r="L159" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="160" ht="168" customHeight="1" spans="1:12">
       <c r="A160" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>418</v>
+        <v>411</v>
       </c>
       <c r="K160" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L160" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="161" ht="168" customHeight="1" spans="1:12">
       <c r="A161" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>419</v>
+        <v>412</v>
       </c>
       <c r="K161" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L161" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="162" ht="168" customHeight="1" spans="1:12">
       <c r="A162" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>421</v>
+        <v>414</v>
       </c>
       <c r="K162" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L162" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="163" ht="168" customHeight="1" spans="1:12">
       <c r="A163" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="K163" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L163" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="164" ht="100" customHeight="1" spans="1:12">
       <c r="A164" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>423</v>
+        <v>416</v>
       </c>
       <c r="K164" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L164" s="2" t="s">
-        <v>420</v>
+        <v>413</v>
       </c>
     </row>
     <row r="165" ht="100" customHeight="1" spans="1:12">
       <c r="A165" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="J165" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K165" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L165" s="2" t="s">
-        <v>427</v>
+        <v>420</v>
       </c>
     </row>
     <row r="166" ht="110" customHeight="1" spans="1:12">
       <c r="A166" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>428</v>
+        <v>421</v>
       </c>
       <c r="J166" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K166" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L166" s="2" t="s">
-        <v>429</v>
+        <v>422</v>
       </c>
     </row>
     <row r="167" ht="168" customHeight="1" spans="1:12">
       <c r="A167" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>430</v>
+        <v>423</v>
       </c>
       <c r="J167" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K167" s="2" t="s">
+        <v>424</v>
+      </c>
+      <c r="L167" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="K167" s="2" t="s">
-        <v>431</v>
-      </c>
-      <c r="L167" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="168" ht="168" customHeight="1" spans="1:12">
       <c r="A168" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>433</v>
+        <v>426</v>
       </c>
       <c r="J168" s="2" t="s">
+        <v>418</v>
+      </c>
+      <c r="K168" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="L168" s="2" t="s">
         <v>425</v>
-      </c>
-      <c r="K168" s="2" t="s">
-        <v>426</v>
-      </c>
-      <c r="L168" s="2" t="s">
-        <v>432</v>
       </c>
     </row>
     <row r="169" ht="168" customHeight="1" spans="1:12">
       <c r="A169" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="J169" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K169" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L169" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="170" ht="168" customHeight="1" spans="1:12">
       <c r="A170" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>436</v>
+        <v>429</v>
       </c>
       <c r="J170" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K170" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L170" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="171" ht="168" customHeight="1" spans="1:12">
       <c r="A171" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="J171" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K171" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L171" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="172" ht="168" customHeight="1" spans="1:12">
       <c r="A172" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>438</v>
+        <v>431</v>
       </c>
       <c r="J172" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K172" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L172" s="2" t="s">
-        <v>435</v>
+        <v>428</v>
       </c>
     </row>
     <row r="173" ht="168" customHeight="1" spans="1:12">
       <c r="A173" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>439</v>
+        <v>432</v>
       </c>
       <c r="J173" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K173" s="2" t="s">
-        <v>440</v>
+        <v>433</v>
       </c>
       <c r="L173" s="2" t="s">
-        <v>441</v>
+        <v>434</v>
       </c>
     </row>
     <row r="174" ht="168" customHeight="1" spans="1:12">
       <c r="A174" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>442</v>
+        <v>435</v>
       </c>
       <c r="J174" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K174" s="2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="L174" s="2" t="s">
-        <v>444</v>
+        <v>437</v>
       </c>
     </row>
     <row r="175" ht="168" customHeight="1" spans="1:12">
       <c r="A175" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>445</v>
+        <v>438</v>
       </c>
       <c r="J175" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K175" s="2" t="s">
-        <v>443</v>
+        <v>436</v>
       </c>
       <c r="L175" s="2" t="s">
-        <v>446</v>
+        <v>439</v>
       </c>
     </row>
     <row r="176" ht="168" customHeight="1" spans="1:12">
       <c r="A176" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>447</v>
+        <v>440</v>
       </c>
       <c r="J176" s="2" t="s">
-        <v>425</v>
+        <v>418</v>
       </c>
       <c r="K176" s="2" t="s">
-        <v>448</v>
+        <v>441</v>
       </c>
       <c r="L176" s="2" t="s">
-        <v>449</v>
+        <v>442</v>
       </c>
     </row>
     <row r="177" ht="168" customHeight="1" spans="1:12">
       <c r="A177" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>450</v>
+        <v>443</v>
       </c>
       <c r="K177" s="2" t="s">
-        <v>451</v>
+        <v>444</v>
       </c>
       <c r="L177" s="2" t="s">
-        <v>452</v>
+        <v>445</v>
       </c>
     </row>
     <row r="178" ht="168" customHeight="1" spans="1:12">
       <c r="A178" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>453</v>
+        <v>446</v>
       </c>
       <c r="K178" s="2" t="s">
-        <v>454</v>
+        <v>447</v>
       </c>
       <c r="L178" s="2" t="s">
-        <v>455</v>
+        <v>448</v>
       </c>
     </row>
     <row r="179" ht="168" customHeight="1" spans="1:12">
       <c r="A179" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>456</v>
+        <v>449</v>
       </c>
       <c r="K179" s="2" t="s">
-        <v>457</v>
+        <v>450</v>
       </c>
       <c r="L179" s="2" t="s">
-        <v>458</v>
+        <v>451</v>
       </c>
     </row>
     <row r="180" ht="168" customHeight="1" spans="1:12">
       <c r="A180" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>459</v>
+        <v>452</v>
       </c>
       <c r="K180" s="2" t="s">
-        <v>460</v>
+        <v>453</v>
       </c>
       <c r="L180" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="181" ht="168" customHeight="1" spans="1:12">
       <c r="A181" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>462</v>
+        <v>455</v>
       </c>
       <c r="K181" s="2" t="s">
-        <v>463</v>
+        <v>456</v>
       </c>
       <c r="L181" s="2" t="s">
-        <v>464</v>
+        <v>457</v>
       </c>
     </row>
     <row r="182" ht="211" customHeight="1" spans="1:12">
       <c r="A182" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>465</v>
+        <v>458</v>
       </c>
       <c r="K182" s="2" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="L182" s="2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="183" ht="211" customHeight="1" spans="1:12">
       <c r="A183" s="2" t="s">
-        <v>409</v>
+        <v>402</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>468</v>
+        <v>461</v>
       </c>
       <c r="J183" s="2" t="s">
-        <v>469</v>
+        <v>462</v>
       </c>
       <c r="K183" s="2" t="s">
-        <v>470</v>
+        <v>463</v>
       </c>
       <c r="L183" s="2" t="s">
-        <v>471</v>
+        <v>464</v>
       </c>
     </row>
     <row r="184" ht="211" customHeight="1" spans="3:12">
       <c r="C184" s="2" t="s">
-        <v>472</v>
+        <v>465</v>
       </c>
       <c r="K184" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L184" s="2" t="s">
-        <v>473</v>
+        <v>466</v>
       </c>
     </row>
     <row r="185" ht="211" customHeight="1" spans="3:12">
       <c r="C185" s="2" t="s">
-        <v>474</v>
+        <v>467</v>
       </c>
       <c r="K185" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L185" s="2" t="s">
-        <v>475</v>
+        <v>468</v>
       </c>
     </row>
     <row r="186" ht="211" customHeight="1" spans="3:12">
       <c r="C186" s="2" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="K186" s="2" t="s">
-        <v>416</v>
+        <v>409</v>
       </c>
       <c r="L186" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="187" ht="211" customHeight="1" spans="3:12">
       <c r="C187" s="2" t="s">
-        <v>477</v>
+        <v>470</v>
       </c>
       <c r="K187" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L187" s="2" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
     </row>
     <row r="188" ht="211" customHeight="1" spans="3:12">
       <c r="C188" s="2" t="s">
-        <v>478</v>
+        <v>471</v>
       </c>
       <c r="K188" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L188" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="189" ht="211" customHeight="1" spans="3:12">
       <c r="C189" s="2" t="s">
-        <v>480</v>
+        <v>473</v>
       </c>
       <c r="K189" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L189" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="190" ht="211" customHeight="1" spans="3:12">
       <c r="C190" s="2" t="s">
-        <v>481</v>
+        <v>474</v>
       </c>
       <c r="K190" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L190" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="191" ht="211" customHeight="1" spans="3:12">
       <c r="C191" s="2" t="s">
-        <v>482</v>
+        <v>475</v>
       </c>
       <c r="K191" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L191" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="192" ht="211" customHeight="1" spans="3:12">
       <c r="C192" s="2" t="s">
-        <v>483</v>
+        <v>476</v>
       </c>
       <c r="K192" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L192" s="2" t="s">
-        <v>479</v>
+        <v>472</v>
       </c>
     </row>
     <row r="193" ht="211" customHeight="1" spans="3:12">
       <c r="C193" s="2" t="s">
-        <v>484</v>
+        <v>477</v>
       </c>
       <c r="K193" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L193" s="2" t="s">
-        <v>485</v>
+        <v>478</v>
       </c>
     </row>
     <row r="194" ht="211" customHeight="1" spans="3:12">
       <c r="C194" s="2" t="s">
-        <v>486</v>
+        <v>479</v>
       </c>
       <c r="K194" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L194" s="2" t="s">
-        <v>487</v>
+        <v>480</v>
       </c>
     </row>
     <row r="195" ht="211" customHeight="1" spans="3:12">
       <c r="C195" s="2" t="s">
-        <v>488</v>
+        <v>481</v>
       </c>
       <c r="K195" s="2" t="s">
-        <v>489</v>
+        <v>482</v>
       </c>
       <c r="L195" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="196" ht="211" customHeight="1" spans="3:12">
       <c r="C196" s="2" t="s">
-        <v>490</v>
+        <v>483</v>
       </c>
       <c r="K196" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L196" s="2" t="s">
-        <v>432</v>
+        <v>425</v>
       </c>
     </row>
     <row r="197" ht="211" customHeight="1" spans="3:12">
       <c r="C197" s="2" t="s">
-        <v>491</v>
+        <v>484</v>
       </c>
       <c r="K197" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L197" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="198" ht="211" customHeight="1" spans="3:12">
       <c r="C198" s="2" t="s">
-        <v>493</v>
+        <v>486</v>
       </c>
       <c r="K198" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L198" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="199" ht="211" customHeight="1" spans="3:12">
       <c r="C199" s="2" t="s">
-        <v>494</v>
+        <v>487</v>
       </c>
       <c r="K199" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L199" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="200" ht="211" customHeight="1" spans="3:12">
       <c r="C200" s="2" t="s">
-        <v>495</v>
+        <v>488</v>
       </c>
       <c r="K200" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L200" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="201" ht="211" customHeight="1" spans="3:12">
       <c r="C201" s="2" t="s">
-        <v>496</v>
+        <v>489</v>
       </c>
       <c r="K201" s="2" t="s">
-        <v>426</v>
+        <v>419</v>
       </c>
       <c r="L201" s="2" t="s">
-        <v>492</v>
+        <v>485</v>
       </c>
     </row>
     <row r="202" ht="211" customHeight="1" spans="3:12">
       <c r="C202" s="2" t="s">
-        <v>497</v>
+        <v>490</v>
       </c>
       <c r="K202" s="2" t="s">
-        <v>411</v>
+        <v>404</v>
       </c>
       <c r="L202" s="2" t="s">
-        <v>498</v>
+        <v>491</v>
       </c>
     </row>
     <row r="203" ht="211" customHeight="1" spans="1:12">
       <c r="A203" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C203" s="2" t="s">
-        <v>500</v>
+        <v>493</v>
       </c>
       <c r="K203" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L203" s="2" t="s">
-        <v>502</v>
+        <v>495</v>
       </c>
     </row>
     <row r="204" ht="211" customHeight="1" spans="1:12">
       <c r="A204" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C204" s="2" t="s">
-        <v>503</v>
+        <v>496</v>
       </c>
       <c r="K204" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L204" s="2" t="s">
-        <v>504</v>
+        <v>497</v>
       </c>
     </row>
     <row r="205" ht="211" customHeight="1" spans="1:12">
       <c r="A205" s="2" t="s">
+        <v>492</v>
+      </c>
+      <c r="C205" s="2" t="s">
+        <v>498</v>
+      </c>
+      <c r="K205" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="C205" s="2" t="s">
-        <v>505</v>
-      </c>
-      <c r="K205" s="2" t="s">
-        <v>506</v>
-      </c>
       <c r="L205" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="206" ht="211" customHeight="1" spans="1:12">
       <c r="A206" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C206" s="2" t="s">
-        <v>508</v>
+        <v>501</v>
       </c>
       <c r="K206" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L206" s="2" t="s">
-        <v>507</v>
+        <v>500</v>
       </c>
     </row>
     <row r="207" ht="130" customHeight="1" spans="1:12">
       <c r="A207" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C207" s="2" t="s">
-        <v>509</v>
+        <v>502</v>
       </c>
       <c r="K207" s="2" t="s">
-        <v>501</v>
+        <v>494</v>
       </c>
       <c r="L207" s="2" t="s">
-        <v>510</v>
+        <v>503</v>
       </c>
     </row>
     <row r="208" ht="130" customHeight="1" spans="1:12">
       <c r="A208" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C208" s="2" t="s">
-        <v>511</v>
+        <v>504</v>
       </c>
       <c r="J208" s="2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K208" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L208" s="2" t="s">
-        <v>514</v>
+        <v>507</v>
       </c>
     </row>
     <row r="209" ht="130" customHeight="1" spans="1:12">
       <c r="A209" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C209" s="2" t="s">
-        <v>515</v>
+        <v>508</v>
       </c>
       <c r="J209" s="2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K209" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L209" s="2" t="s">
-        <v>516</v>
+        <v>509</v>
       </c>
     </row>
     <row r="210" ht="167" customHeight="1" spans="1:12">
       <c r="A210" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C210" s="2" t="s">
-        <v>517</v>
+        <v>510</v>
       </c>
       <c r="J210" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="K210" s="2" t="s">
+        <v>511</v>
+      </c>
+      <c r="L210" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="K210" s="2" t="s">
-        <v>518</v>
-      </c>
-      <c r="L210" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="211" ht="130" customHeight="1" spans="1:12">
       <c r="A211" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C211" s="2" t="s">
-        <v>520</v>
+        <v>513</v>
       </c>
       <c r="J211" s="2" t="s">
+        <v>505</v>
+      </c>
+      <c r="K211" s="2" t="s">
+        <v>506</v>
+      </c>
+      <c r="L211" s="2" t="s">
         <v>512</v>
-      </c>
-      <c r="K211" s="2" t="s">
-        <v>513</v>
-      </c>
-      <c r="L211" s="2" t="s">
-        <v>519</v>
       </c>
     </row>
     <row r="212" ht="176" customHeight="1" spans="1:12">
       <c r="A212" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C212" s="2" t="s">
-        <v>521</v>
+        <v>514</v>
       </c>
       <c r="J212" s="2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K212" s="2" t="s">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="L212" s="2" t="s">
-        <v>522</v>
+        <v>515</v>
       </c>
     </row>
     <row r="213" ht="130" customHeight="1" spans="1:12">
       <c r="A213" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C213" s="2" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="J213" s="2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K213" s="2" t="s">
-        <v>524</v>
+        <v>517</v>
       </c>
       <c r="L213" s="2" t="s">
-        <v>525</v>
+        <v>518</v>
       </c>
     </row>
     <row r="214" ht="174" customHeight="1" spans="1:12">
       <c r="A214" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C214" s="2" t="s">
-        <v>526</v>
+        <v>519</v>
       </c>
       <c r="J214" s="2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K214" s="2" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="L214" s="2" t="s">
-        <v>528</v>
+        <v>521</v>
       </c>
     </row>
     <row r="215" ht="130" customHeight="1" spans="1:12">
       <c r="A215" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C215" s="2" t="s">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="J215" s="2" t="s">
-        <v>512</v>
+        <v>505</v>
       </c>
       <c r="K215" s="2" t="s">
-        <v>527</v>
+        <v>520</v>
       </c>
       <c r="L215" s="2" t="s">
-        <v>530</v>
+        <v>523</v>
       </c>
     </row>
     <row r="216" ht="175" customHeight="1" spans="1:12">
       <c r="A216" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C216" s="2" t="s">
-        <v>531</v>
+        <v>524</v>
       </c>
       <c r="K216" s="2" t="s">
-        <v>532</v>
+        <v>525</v>
       </c>
       <c r="L216" s="2" t="s">
-        <v>533</v>
+        <v>526</v>
       </c>
     </row>
     <row r="217" ht="175" customHeight="1" spans="1:12">
       <c r="A217" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C217" s="2" t="s">
-        <v>534</v>
+        <v>527</v>
       </c>
       <c r="K217" s="2" t="s">
-        <v>535</v>
+        <v>528</v>
       </c>
       <c r="L217" s="2" t="s">
-        <v>536</v>
+        <v>529</v>
       </c>
     </row>
     <row r="218" ht="130" customHeight="1" spans="1:12">
       <c r="A218" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C218" s="2" t="s">
-        <v>537</v>
+        <v>530</v>
       </c>
       <c r="K218" s="2" t="s">
-        <v>538</v>
+        <v>531</v>
       </c>
       <c r="L218" s="2" t="s">
-        <v>539</v>
+        <v>532</v>
       </c>
     </row>
     <row r="219" ht="130" customHeight="1" spans="1:12">
       <c r="A219" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C219" s="2" t="s">
-        <v>540</v>
+        <v>533</v>
       </c>
       <c r="K219" s="2" t="s">
-        <v>541</v>
+        <v>534</v>
       </c>
       <c r="L219" s="2" t="s">
-        <v>461</v>
+        <v>454</v>
       </c>
     </row>
     <row r="220" ht="164" customHeight="1" spans="1:12">
       <c r="A220" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C220" s="2" t="s">
-        <v>542</v>
+        <v>535</v>
       </c>
       <c r="K220" s="2" t="s">
-        <v>543</v>
+        <v>536</v>
       </c>
       <c r="L220" s="2" t="s">
-        <v>544</v>
+        <v>537</v>
       </c>
     </row>
     <row r="221" ht="130" customHeight="1" spans="1:12">
       <c r="A221" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C221" s="2" t="s">
-        <v>545</v>
+        <v>538</v>
       </c>
       <c r="K221" s="2" t="s">
-        <v>546</v>
+        <v>539</v>
       </c>
       <c r="L221" s="2" t="s">
-        <v>467</v>
+        <v>460</v>
       </c>
     </row>
     <row r="222" ht="168" customHeight="1" spans="1:12">
       <c r="A222" s="2" t="s">
-        <v>499</v>
+        <v>492</v>
       </c>
       <c r="C222" s="2" t="s">
-        <v>547</v>
+        <v>540</v>
       </c>
       <c r="J222" s="2" t="s">
-        <v>548</v>
+        <v>541</v>
       </c>
       <c r="K222" s="2" t="s">
-        <v>549</v>
+        <v>542</v>
       </c>
       <c r="L222" s="2" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="223" ht="130" customHeight="1" spans="1:12">
       <c r="A223" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>552</v>
+        <v>545</v>
       </c>
       <c r="J223" s="2" t="s">
-        <v>553</v>
+        <v>546</v>
       </c>
       <c r="K223" s="2" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="L223" s="2" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="224" ht="155" customHeight="1" spans="1:12">
       <c r="A224" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>549</v>
+      </c>
+      <c r="J224" s="2" t="s">
+        <v>550</v>
+      </c>
+      <c r="K224" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="L224" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="C224" s="2" t="s">
-        <v>556</v>
-      </c>
-      <c r="J224" s="2" t="s">
-        <v>557</v>
-      </c>
-      <c r="K224" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="L224" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="225" ht="130" customHeight="1" spans="1:12">
       <c r="A225" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>559</v>
+        <v>552</v>
       </c>
       <c r="K225" s="2" t="s">
-        <v>554</v>
+        <v>547</v>
       </c>
       <c r="L225" s="2" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="226" ht="130" customHeight="1" spans="1:12">
       <c r="A226" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>561</v>
+        <v>554</v>
       </c>
       <c r="K226" s="2" t="s">
-        <v>562</v>
+        <v>555</v>
       </c>
       <c r="L226" s="2" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="227" ht="172" customHeight="1" spans="1:12">
       <c r="A227" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C227" s="2" t="s">
+        <v>557</v>
+      </c>
+      <c r="K227" s="2" t="s">
+        <v>547</v>
+      </c>
+      <c r="L227" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="C227" s="2" t="s">
-        <v>564</v>
-      </c>
-      <c r="K227" s="2" t="s">
-        <v>554</v>
-      </c>
-      <c r="L227" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="228" ht="188" customHeight="1" spans="1:12">
       <c r="A228" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>565</v>
+        <v>558</v>
       </c>
       <c r="J228" s="2" t="s">
-        <v>566</v>
+        <v>559</v>
       </c>
       <c r="K228" s="2" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="L228" s="2" t="s">
-        <v>555</v>
+        <v>548</v>
       </c>
     </row>
     <row r="229" ht="212" customHeight="1" spans="1:12">
       <c r="A229" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>568</v>
+        <v>561</v>
       </c>
       <c r="J229" s="2" t="s">
-        <v>569</v>
+        <v>562</v>
       </c>
       <c r="K229" s="2" t="s">
-        <v>567</v>
+        <v>560</v>
       </c>
       <c r="L229" s="2" t="s">
-        <v>560</v>
+        <v>553</v>
       </c>
     </row>
     <row r="230" ht="188" customHeight="1" spans="1:12">
       <c r="A230" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C230" s="2" t="s">
+        <v>563</v>
+      </c>
+      <c r="J230" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="K230" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="L230" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="C230" s="2" t="s">
-        <v>570</v>
-      </c>
-      <c r="J230" s="2" t="s">
-        <v>571</v>
-      </c>
-      <c r="K230" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="L230" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="231" ht="188" customHeight="1" spans="1:12">
       <c r="A231" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>572</v>
+        <v>565</v>
       </c>
       <c r="J231" s="2" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="K231" s="2" t="s">
-        <v>574</v>
+        <v>567</v>
       </c>
       <c r="L231" s="2" t="s">
-        <v>563</v>
+        <v>556</v>
       </c>
     </row>
     <row r="232" ht="130" customHeight="1" spans="1:12">
       <c r="A232" s="2" t="s">
+        <v>544</v>
+      </c>
+      <c r="C232" s="2" t="s">
+        <v>568</v>
+      </c>
+      <c r="J232" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="K232" s="2" t="s">
+        <v>560</v>
+      </c>
+      <c r="L232" s="2" t="s">
         <v>551</v>
-      </c>
-      <c r="C232" s="2" t="s">
-        <v>575</v>
-      </c>
-      <c r="J232" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="K232" s="2" t="s">
-        <v>567</v>
-      </c>
-      <c r="L232" s="2" t="s">
-        <v>558</v>
       </c>
     </row>
     <row r="233" ht="130" customHeight="1" spans="1:12">
       <c r="A233" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>576</v>
+        <v>569</v>
       </c>
       <c r="J233" s="2" t="s">
-        <v>573</v>
+        <v>566</v>
       </c>
       <c r="K233" s="2" t="s">
-        <v>577</v>
+        <v>570</v>
       </c>
       <c r="L233" s="2" t="s">
-        <v>578</v>
+        <v>571</v>
       </c>
     </row>
     <row r="234" ht="130" customHeight="1" spans="1:12">
       <c r="A234" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>579</v>
+        <v>572</v>
       </c>
       <c r="J234" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="K234" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="K234" s="2" t="s">
-        <v>580</v>
-      </c>
       <c r="L234" s="2" t="s">
-        <v>581</v>
+        <v>574</v>
       </c>
     </row>
     <row r="235" ht="130" customHeight="1" spans="1:12">
       <c r="A235" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>582</v>
+        <v>575</v>
       </c>
       <c r="J235" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="K235" s="2" t="s">
         <v>573</v>
       </c>
-      <c r="K235" s="2" t="s">
-        <v>580</v>
-      </c>
       <c r="L235" s="2" t="s">
-        <v>583</v>
+        <v>576</v>
       </c>
     </row>
     <row r="236" ht="130" customHeight="1" spans="1:12">
       <c r="A236" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>584</v>
+        <v>577</v>
       </c>
       <c r="K236" s="2" t="s">
-        <v>585</v>
+        <v>578</v>
       </c>
       <c r="L236" s="2" t="s">
-        <v>586</v>
+        <v>579</v>
       </c>
     </row>
     <row r="237" ht="130" customHeight="1" spans="1:12">
       <c r="A237" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>587</v>
+        <v>580</v>
       </c>
       <c r="K237" s="2" t="s">
-        <v>588</v>
+        <v>581</v>
       </c>
       <c r="L237" s="2" t="s">
-        <v>589</v>
+        <v>582</v>
       </c>
     </row>
     <row r="238" ht="130" customHeight="1" spans="1:12">
       <c r="A238" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>590</v>
+        <v>583</v>
       </c>
       <c r="K238" s="2" t="s">
-        <v>591</v>
+        <v>584</v>
       </c>
       <c r="L238" s="2" t="s">
-        <v>592</v>
+        <v>585</v>
       </c>
     </row>
     <row r="239" ht="138" customHeight="1" spans="1:12">
       <c r="A239" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>593</v>
+        <v>586</v>
       </c>
       <c r="K239" s="2" t="s">
-        <v>594</v>
+        <v>587</v>
       </c>
       <c r="L239" s="2" t="s">
-        <v>595</v>
+        <v>588</v>
       </c>
     </row>
     <row r="240" ht="116" customHeight="1" spans="1:12">
       <c r="A240" s="2" t="s">
-        <v>551</v>
+        <v>544</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>596</v>
+        <v>589</v>
       </c>
       <c r="J240" s="2" t="s">
-        <v>597</v>
+        <v>590</v>
       </c>
       <c r="K240" s="2" t="s">
-        <v>598</v>
+        <v>591</v>
       </c>
       <c r="L240" s="2" t="s">
-        <v>550</v>
+        <v>543</v>
       </c>
     </row>
     <row r="241" ht="120" customHeight="1" spans="11:11">
